--- a/COVID/Cod Region y Población.xlsx
+++ b/COVID/Cod Region y Población.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\COVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E4CF9F-7F65-4721-84F9-7D52FD0B300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6238D-921E-426A-905A-6650811C8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A8F75701-CA8D-4623-8B3C-20F4BD4CECF0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Codigo region</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Tarapaca</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
@@ -54,30 +51,12 @@
     <t>Coquimbo</t>
   </si>
   <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
-    <t>Del Libertador General Bernardo O’Higgins</t>
-  </si>
-  <si>
     <t>Maule</t>
   </si>
   <si>
-    <t>Biobio</t>
-  </si>
-  <si>
-    <t>La Araucania</t>
-  </si>
-  <si>
     <t>Los Lagos</t>
   </si>
   <si>
-    <t>Aysen</t>
-  </si>
-  <si>
-    <t>Magallanes y la Antartica</t>
-  </si>
-  <si>
     <t>Metropolitana</t>
   </si>
   <si>
@@ -87,10 +66,34 @@
     <t>Arica y Parinacota</t>
   </si>
   <si>
-    <t>Nuble</t>
-  </si>
-  <si>
     <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>No Informada</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>O’Higgins</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654CF776-AF67-4BDA-AC3C-8098A1B35154}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3827730</v>
@@ -482,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>6918540</v>
@@ -493,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3147090</v>
@@ -504,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>8360960</v>
@@ -515,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>19601700</v>
@@ -526,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>9910630</v>
@@ -537,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>11319390</v>
@@ -548,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>16636960</v>
@@ -559,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>10143430</v>
@@ -570,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>8914400</v>
@@ -592,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>1783620</v>
@@ -603,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>81250720</v>
@@ -614,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>4058350</v>
@@ -625,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>2521100</v>
@@ -636,10 +639,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>5115510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
